--- a/权限/New SuperID 权限方案初稿.xlsx
+++ b/权限/New SuperID 权限方案初稿.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="77">
   <si>
     <t>盟信息</t>
     <rPh sb="0" eb="1">
@@ -1392,8 +1392,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I55"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="139" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="139" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1764,9 +1764,7 @@
       <c r="D22" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>65</v>
-      </c>
+      <c r="E22" s="3"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
@@ -1781,9 +1779,7 @@
       <c r="D23" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="E23" s="3" t="s">
-        <v>65</v>
-      </c>
+      <c r="E23" s="3"/>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
